--- a/crudTable.xlsx
+++ b/crudTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\SE\Projects\gardabook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755354D4-CDE8-4220-BDEE-923E16904D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAA598D-5736-4415-9616-01EA02DB9EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13548" yWindow="3948" windowWidth="7500" windowHeight="6000" xr2:uid="{F3AC998F-61AF-4A88-ABEF-7232D061ECD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3AC998F-61AF-4A88-ABEF-7232D061ECD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,7 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>User(consumer &amp; producer)</t>
-  </si>
-  <si>
     <t>CRUD</t>
-  </si>
-  <si>
-    <t>Booking (user specific)</t>
-  </si>
-  <si>
-    <t>Enrollment (user specific)</t>
-  </si>
-  <si>
-    <t>Catalog (user specific)</t>
   </si>
   <si>
     <r>
@@ -77,19 +65,31 @@
     </r>
   </si>
   <si>
-    <t>Booking (all)</t>
-  </si>
-  <si>
-    <t>Enrollment (all)</t>
-  </si>
-  <si>
-    <t>Catalog (all)</t>
-  </si>
-  <si>
-    <t>User Info (all)</t>
-  </si>
-  <si>
-    <t>User Info (user specific)</t>
+    <t>User Info (owner)</t>
+  </si>
+  <si>
+    <t>Booking (owner)</t>
+  </si>
+  <si>
+    <t>Enrollment (owner)</t>
+  </si>
+  <si>
+    <t>Catalog (owner)</t>
+  </si>
+  <si>
+    <t>User Info (non-owner)</t>
+  </si>
+  <si>
+    <t>Booking (non-owner)</t>
+  </si>
+  <si>
+    <t>Enrollment (non-owner)</t>
+  </si>
+  <si>
+    <t>Catalog (non-owner)</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -197,10 +197,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,7 +520,7 @@
   <dimension ref="C2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,101 +531,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="3:5" ht="28.2" x14ac:dyDescent="0.6">
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
